--- a/procurement_export_po.xlsx
+++ b/procurement_export_po.xlsx
@@ -19,30 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Supplier:</t>
   </si>
   <si>
-    <t>Alecnil Enterprise</t>
+    <t>AG3 Colors Printing Press</t>
   </si>
   <si>
     <t>PO No.</t>
   </si>
   <si>
-    <t>2022-03-0003</t>
+    <t>2022-04-0004</t>
   </si>
   <si>
     <t>Address:</t>
   </si>
   <si>
-    <t>Gomez st. San Pablo City Laguna</t>
+    <t>21 Sto. Domingo St. BF Road Holy Spirit Quezon City</t>
   </si>
   <si>
     <t>DATE:</t>
   </si>
   <si>
-    <t>2022-02-23</t>
+    <t>February 18, 2022</t>
   </si>
   <si>
     <t>Tel No.:</t>
@@ -54,7 +54,7 @@
     <t>Fax No.:</t>
   </si>
   <si>
-    <t>Supplies, Materials and Devices</t>
+    <t>Shopping</t>
   </si>
   <si>
     <r>
@@ -116,43 +116,27 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>S3670</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>Executive Chair 
-TEST 3</t>
-  </si>
-  <si>
-    <t>₱3,500.00</t>
-  </si>
-  <si>
-    <t>₱12,500.00</t>
-  </si>
-  <si>
-    <t>S3666</t>
-  </si>
-  <si>
-    <t>Office Table (Clerical)
-TEST 3</t>
-  </si>
-  <si>
-    <t>₱4,500.00</t>
-  </si>
-  <si>
-    <t>S3581</t>
-  </si>
-  <si>
-    <t>Wooden Conference Table, 6 seater
-TEST 3</t>
-  </si>
-  <si>
-    <t>₱47,000.00</t>
-  </si>
-  <si>
-    <t>₱30,000.00</t>
+    <t>S3571</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Detergent powder
+sasa</t>
+  </si>
+  <si>
+    <t>₱32.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>₱100.00</t>
+  </si>
+  <si>
+    <t>₱0.00</t>
   </si>
   <si>
     <t>(Total Amount in Words)    pesos only</t>
@@ -1262,60 +1246,42 @@
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customHeight="1" ht="60">
+      <c r="A18" s="26"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="47" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" customHeight="1" ht="60">
-      <c r="A18" s="26" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="47" t="s">
+      <c r="G18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="27">
-        <v>4</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="19" spans="1:8" customHeight="1" ht="60">
-      <c r="A19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>33</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="52"/>
-      <c r="E19" s="28">
-        <v>4</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:8" customHeight="1" ht="30">
       <c r="A20" s="74" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
@@ -1323,7 +1289,7 @@
       <c r="E20" s="75"/>
       <c r="F20" s="2"/>
       <c r="G20" s="76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1341,7 +1307,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="54" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -1362,51 +1328,51 @@
     <row r="25" spans="1:8" customHeight="1" ht="7.2"/>
     <row r="26" spans="1:8">
       <c r="E26" s="55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:8">
       <c r="E28" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6"/>
       <c r="E30" s="56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
     </row>
     <row r="31" spans="1:8">
       <c r="E31" s="57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="57"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="33"/>
       <c r="E32" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F32" s="49"/>
       <c r="G32" s="49"/>
@@ -1423,7 +1389,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -1434,7 +1400,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -1575,14 +1541,14 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="40" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
       <c r="F13" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1593,7 +1559,7 @@
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1723,7 +1689,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
       <c r="C27" s="63" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D27" s="64"/>
       <c r="E27" s="4"/>
@@ -1734,7 +1700,7 @@
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
       <c r="C28" s="65" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="4"/>
@@ -1745,7 +1711,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
       <c r="C29" s="65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="4"/>
@@ -1756,7 +1722,7 @@
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
       <c r="C30" s="65" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="4"/>
@@ -1911,7 +1877,7 @@
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
       <c r="C47" s="67" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D47" s="68"/>
       <c r="E47" s="6"/>
@@ -1920,7 +1886,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="69" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B48" s="69"/>
       <c r="C48" s="70"/>
@@ -1944,7 +1910,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="54" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -1965,39 +1931,39 @@
     <row r="53" spans="1:8" customHeight="1" ht="7.2"/>
     <row r="54" spans="1:8">
       <c r="E54" s="55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F54" s="55"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:8">
       <c r="E56" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B60" s="49"/>
       <c r="C60" s="49"/>
       <c r="D60" s="49"/>
       <c r="E60" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>

--- a/procurement_export_po.xlsx
+++ b/procurement_export_po.xlsx
@@ -1,54 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC20ED37-6A4A-4D20-B6FB-744898EDFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="For End-User" sheetId="1" r:id="rId1"/>
-    <sheet name="For initial approval" sheetId="2" r:id="rId2"/>
+    <sheet name="For End-User" sheetId="1" r:id="rId4"/>
+    <sheet name="For initial approval" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'For End-User'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'For initial approval'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Supplier:</t>
   </si>
   <si>
-    <t>250 Cafe</t>
+    <t xml:space="preserve">A T Santos Inc.
+</t>
   </si>
   <si>
     <t>PO No.</t>
   </si>
   <si>
-    <t>2022-03-00002</t>
+    <t>2022-06-0001</t>
   </si>
   <si>
     <t>Address:</t>
   </si>
   <si>
-    <t>#250 General Lim st. Brgy. 5 Calamba City Laguna</t>
+    <t xml:space="preserve">Pueblo De Panay Lawa-an Roxas City
+</t>
   </si>
   <si>
     <t>DATE:</t>
   </si>
   <si>
-    <t>2022-02-23</t>
+    <t>June 15, 2022</t>
   </si>
   <si>
     <t>Tel No.:</t>
@@ -58,26 +54,34 @@
   </si>
   <si>
     <t>Fax No.:</t>
+  </si>
+  <si>
+    <t>Small Value Procurement</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Cambria"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <u val="none"/>
       </rPr>
       <t xml:space="preserve">Gentlemen: </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Cambria"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+        <u val="none"/>
       </rPr>
-      <t>Please furnish this office the following articles subject to the terms and conditions contained herein:</t>
+      <t xml:space="preserve">Please furnish this office the following articles subject to the terms and conditions contained herein:</t>
     </r>
   </si>
   <si>
@@ -114,6 +118,49 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>S3554</t>
+  </si>
+  <si>
+    <t>pax</t>
+  </si>
+  <si>
+    <t>Meals and Snacks (Breakfast, AM Snacks, Lunch, PM Snacks)
+d</t>
+  </si>
+  <si>
+    <t>₱300.00</t>
+  </si>
+  <si>
+    <t>(Total Amount in Words)    pesos only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place of Delivery: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery </t>
+  </si>
+  <si>
+    <t>Terms:</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref: </t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>page 1 of 1</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT IN WORDS</t>
+  </si>
+  <si>
     <t xml:space="preserve">                   In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for every day of delay shall be imposed.</t>
   </si>
   <si>
@@ -133,85 +180,78 @@
   </si>
   <si>
     <t>AMOUNT:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place of Delivery: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery </t>
-  </si>
-  <si>
-    <t>Terms:</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ref: </t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>page 1 of 1</t>
-  </si>
-  <si>
-    <t>TOTAL AMOUNT IN WORDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,89 +259,78 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -310,264 +339,244 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="63">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -583,13 +592,7 @@
     <xdr:ext cx="847725" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -601,10 +604,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -622,13 +622,7 @@
     <xdr:ext cx="3667125" cy="457200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 20" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -640,10 +634,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -661,13 +652,7 @@
     <xdr:ext cx="2190750" cy="819150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 22" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -679,10 +664,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -705,13 +687,7 @@
     <xdr:ext cx="847725" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -723,10 +699,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1023,25 +996,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="true" style="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="true" style="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="true" style="21"/>
+    <col min="4" max="4" width="4" customWidth="true" style="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="true" style="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="true" style="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="true" style="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1042,7 @@
       </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1059,7 @@
       </c>
       <c r="G8" s="27"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
@@ -1086,20 +1070,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -1108,22 +1094,22 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -1132,52 +1118,77 @@
       <c r="F14" s="33"/>
       <c r="G14" s="35"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customHeight="1" ht="15.75">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
       <c r="F15" s="52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customHeight="1" ht="15.75">
       <c r="A16" s="53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="54"/>
       <c r="E16" s="55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customHeight="1" ht="60">
+      <c r="A17" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="E17" s="61">
+        <v>1</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" customHeight="1" ht="30">
+      <c r="A19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="61" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="13">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="E10:G10"/>
@@ -1191,33 +1202,50 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
-  <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.5511811023622" bottom="0.35433070866142" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="80" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A7:H62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="true" style="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="true" style="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="true" style="1"/>
+    <col min="4" max="4" width="4" customWidth="true" style="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="true" style="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="true" style="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="true" style="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1258,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1271,7 @@
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
@@ -1254,7 +1282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
@@ -1265,9 +1293,9 @@
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -1276,63 +1304,63 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customHeight="1" ht="15.75">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" customHeight="1" ht="15.75">
       <c r="A16" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="49"/>
@@ -1341,7 +1369,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="15"/>
       <c r="B18" s="3"/>
       <c r="C18" s="19"/>
@@ -1350,7 +1378,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="15"/>
       <c r="B19" s="3"/>
       <c r="C19" s="19"/>
@@ -1359,7 +1387,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="15"/>
       <c r="B20" s="3"/>
       <c r="C20" s="19"/>
@@ -1368,7 +1396,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="3"/>
       <c r="C21" s="19"/>
@@ -1377,7 +1405,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="15"/>
       <c r="B22" s="3"/>
       <c r="C22" s="19"/>
@@ -1386,7 +1414,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="3"/>
       <c r="C23" s="19"/>
@@ -1395,7 +1423,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="15"/>
       <c r="B24" s="3"/>
       <c r="C24" s="42"/>
@@ -1404,7 +1432,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
       <c r="C25" s="42"/>
@@ -1413,7 +1441,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="15"/>
       <c r="B26" s="3"/>
       <c r="C26" s="42"/>
@@ -1422,51 +1450,51 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
       <c r="C27" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="4"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
       <c r="C28" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
       <c r="C29" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="4"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
       <c r="C30" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="4"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="15"/>
       <c r="B31" s="3"/>
       <c r="C31" s="42"/>
@@ -1475,7 +1503,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="15"/>
       <c r="B32" s="3"/>
       <c r="C32" s="19"/>
@@ -1484,7 +1512,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="15"/>
       <c r="B33" s="3"/>
       <c r="C33" s="19"/>
@@ -1493,7 +1521,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="15"/>
       <c r="B34" s="3"/>
       <c r="C34" s="19"/>
@@ -1502,7 +1530,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="15"/>
       <c r="B35" s="3"/>
       <c r="C35" s="19"/>
@@ -1511,7 +1539,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="15"/>
       <c r="B36" s="3"/>
       <c r="C36" s="19"/>
@@ -1520,7 +1548,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="15"/>
       <c r="B37" s="3"/>
       <c r="C37" s="19"/>
@@ -1529,7 +1557,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="15"/>
       <c r="B38" s="3"/>
       <c r="C38" s="19"/>
@@ -1538,7 +1566,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="15"/>
       <c r="B39" s="3"/>
       <c r="C39" s="19"/>
@@ -1547,7 +1575,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="15"/>
       <c r="B40" s="3"/>
       <c r="C40" s="19"/>
@@ -1556,7 +1584,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="15"/>
       <c r="B41" s="3"/>
       <c r="C41" s="42"/>
@@ -1565,7 +1593,7 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="15"/>
       <c r="B42" s="3"/>
       <c r="C42" s="42"/>
@@ -1574,7 +1602,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="15"/>
       <c r="B43" s="3"/>
       <c r="C43" s="42"/>
@@ -1583,7 +1611,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="15"/>
       <c r="B44" s="3"/>
       <c r="C44" s="42"/>
@@ -1592,7 +1620,7 @@
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="15"/>
       <c r="B45" s="3"/>
       <c r="C45" s="42"/>
@@ -1601,7 +1629,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
       <c r="C46" s="42"/>
@@ -1610,20 +1638,20 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
       <c r="C47" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="6"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="39"/>
@@ -1632,7 +1660,7 @@
       <c r="F48" s="38"/>
       <c r="G48" s="40"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -1641,13 +1669,13 @@
       <c r="F49" s="38"/>
       <c r="G49" s="40"/>
     </row>
-    <row r="50" spans="1:7" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" customHeight="1" ht="8.4">
       <c r="C50" s="41"/>
       <c r="D50" s="41"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="23" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -1656,7 +1684,7 @@
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -1665,47 +1693,47 @@
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
     </row>
-    <row r="53" spans="1:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" customHeight="1" ht="7.2"/>
+    <row r="54" spans="1:8">
       <c r="E54" s="24" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="25" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="E56" s="25" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C58" s="6"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="22" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -1714,7 +1742,7 @@
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -1724,8 +1752,8 @@
       <c r="G62" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="35">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
@@ -1762,8 +1790,17 @@
     <mergeCell ref="A51:G52"/>
     <mergeCell ref="E54:F54"/>
   </mergeCells>
-  <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.55118110236219997" bottom="0.35433070866142002" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.5511811023622" bottom="0.35433070866142" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="80" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/procurement_export_po.xlsx
+++ b/procurement_export_po.xlsx
@@ -19,35 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve">A T Santos Inc.
-</t>
+    <t>168 Paragon International General Contractror   Equipment</t>
   </si>
   <si>
     <t>PO No.</t>
   </si>
   <si>
-    <t>2022-06-0001</t>
+    <t>2023-01-0001</t>
   </si>
   <si>
     <t>Address:</t>
   </si>
   <si>
-    <t xml:space="preserve">Pueblo De Panay Lawa-an Roxas City
-</t>
+    <t>108-A Kaingin Road, Balintawak, Quezon City</t>
   </si>
   <si>
     <t>DATE:</t>
   </si>
   <si>
-    <t>June 15, 2022</t>
+    <t>January 26, 2023</t>
   </si>
   <si>
     <t>Tel No.:</t>
+  </si>
+  <si>
+    <t>415-1924, 362-1288, 330-3344</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -118,20 +119,59 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>S3554</t>
-  </si>
-  <si>
-    <t>pax</t>
-  </si>
-  <si>
-    <t>Meals and Snacks (Breakfast, AM Snacks, Lunch, PM Snacks)
-d</t>
-  </si>
-  <si>
-    <t>₱300.00</t>
-  </si>
-  <si>
-    <t>(Total Amount in Words)    pesos only</t>
+    <t>S4189</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Meals
+2</t>
+  </si>
+  <si>
+    <t>₱100.00</t>
+  </si>
+  <si>
+    <t>₱0.00</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>(Total Amount In Words) 0pesos Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for every day of delay shall be imposed.</t>
+  </si>
+  <si>
+    <t>Very Truly Yours:</t>
+  </si>
+  <si>
+    <t>Conforme:</t>
+  </si>
+  <si>
+    <t>Approving Authority</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
+  </si>
+  <si>
+    <t>FUNDS PROVIDED</t>
+  </si>
+  <si>
+    <t>AMOUNT:</t>
+  </si>
+  <si>
+    <t>AGNES S. SANGEL</t>
+  </si>
+  <si>
+    <t>Regional Accountant</t>
   </si>
   <si>
     <t xml:space="preserve">Place of Delivery: </t>
@@ -164,22 +204,7 @@
     <t xml:space="preserve">                   In case of failure to make full delivery within time specified above, a penalty of one-tenth (1/10) of one percent for every day of delay shall be imposed.</t>
   </si>
   <si>
-    <t>Very Truly Yours:</t>
-  </si>
-  <si>
-    <t>Conforme:</t>
-  </si>
-  <si>
-    <t>Approving Authority</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
-    <t>FUNDS PROVIDED</t>
-  </si>
-  <si>
-    <t>AMOUNT:</t>
   </si>
 </sst>
 </file>
@@ -189,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -253,6 +278,15 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -381,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -556,9 +590,6 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -569,7 +600,28 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,10 +1052,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1064,28 +1116,30 @@
         <v>8</v>
       </c>
       <c r="B9" s="26"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
       <c r="E10" s="27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -1096,17 +1150,17 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1125,66 +1179,153 @@
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
       <c r="F15" s="52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" customHeight="1" ht="15.75">
       <c r="A16" s="53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="54"/>
       <c r="E16" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" customHeight="1" ht="60">
       <c r="A17" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61">
-        <v>1</v>
-      </c>
-      <c r="F17" s="61" t="s">
+      <c r="C17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="D17" s="59"/>
+      <c r="E17" s="60">
+        <v>0</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customHeight="1" ht="60">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="61" t="s">
         <v>27</v>
       </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="60">
+        <v>0</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:8" customHeight="1" ht="30">
-      <c r="A19" s="40" t="s">
-        <v>28</v>
+      <c r="A19" s="62" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="62"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="61" t="s">
-        <v>27</v>
-      </c>
+      <c r="G19" s="60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" customHeight="1" ht="40">
+      <c r="A20" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="64"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="E23" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="E25" s="65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="E26" s="66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="E28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1202,7 +1343,19 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.51181102362205" right="0.31496062992126" top="0.5511811023622" bottom="0.35433070866142" header="0.31496062992126" footer="0.31496062992126"/>
@@ -1279,12 +1432,12 @@
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="6"/>
@@ -1295,7 +1448,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -1306,14 +1459,14 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1324,7 +1477,7 @@
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1335,29 +1488,29 @@
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" customHeight="1" ht="15.75">
       <c r="A16" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1454,7 +1607,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="3"/>
       <c r="C27" s="44" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="4"/>
@@ -1465,7 +1618,7 @@
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
       <c r="C28" s="46" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="4"/>
@@ -1476,7 +1629,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="3"/>
       <c r="C29" s="46" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="4"/>
@@ -1487,7 +1640,7 @@
       <c r="A30" s="15"/>
       <c r="B30" s="3"/>
       <c r="C30" s="46" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="4"/>
@@ -1642,7 +1795,7 @@
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
       <c r="C47" s="36" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="6"/>
@@ -1651,7 +1804,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="38" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="39"/>
@@ -1675,7 +1828,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="23" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -1696,39 +1849,39 @@
     <row r="53" spans="1:8" customHeight="1" ht="7.2"/>
     <row r="54" spans="1:8">
       <c r="E54" s="24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:8">
       <c r="E56" s="25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
